--- a/pred_ohlcv/54_21/2019-10-26 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 OGO ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>223045.8376454547</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>728509.5785454547</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>999869.2059029888</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>640111.0965029887</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>612673.2107029887</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>626400.2760029887</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>601813.0963029887</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>601852.2096029887</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>601852.2096029887</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>581402.6812029886</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>599534.3885029886</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>555148.1100029886</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>547403.5140029886</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>452267.8517029886</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>379778.2500029886</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>379778.2500029886</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>379778.2500029886</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>379778.2500029886</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>379778.2500029886</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>384158.2500029886</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>386557.2500029886</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>358381.2500029886</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>360611.3915029886</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>366935.7218029886</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>393681.7218029886</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>393681.7218029886</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>393681.7218029886</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>393681.7218029886</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>399681.7218029886</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>399681.7218029886</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>408299.7218029886</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>408299.7218029886</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>405947.7218029886</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>399931.0839029886</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>399931.0839029886</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>438714.5964029887</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>435509.5964029887</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>442984.5964029887</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>442942.7828029887</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>442942.7828029887</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>332438.3934029887</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>339558.3934029887</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>383001.3934029887</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>385028.0869029887</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>78905.03120298864</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>202453.8712029886</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>206379.8256029886</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>124802.7302029886</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>137466.7302029886</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>141458.0784029886</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>108405.9864029886</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>86129.98640298864</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>89129.98640298864</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>73200.41007810383</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 OGO ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>405427.5478454547</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>223045.8376454547</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>728509.5785454547</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>999869.2059029888</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>956799.1177029888</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>947270.8745029888</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>939686.5412029887</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>970075.1161029887</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1020025.115802989</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>339558.3934029887</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>202453.8712029886</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>206379.8256029886</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>140672.3866029886</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>103157.1531029886</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>109729.1828029886</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>124802.7302029886</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>124802.7302029886</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>124802.7302029886</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>128802.7302029886</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>128658.7302029886</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>144667.7302029886</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>136066.7302029886</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>137466.7302029886</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>137466.7302029886</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>141458.0784029886</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>108405.9864029886</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>86129.98640298864</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>89129.98640298864</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>83643.88610298863</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>51353.97830298863</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>74395.71220298862</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>72395.71220298862</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>61401.67850298862</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>70901.67850298862</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>68901.67850298862</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>68901.67850298862</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>68901.67850298862</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>69563.67850298862</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>59314.78507810383</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>59200.41007810383</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>73200.41007810383</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
